--- a/Report_Generator_V1/bin/Debug/teste.xlsx
+++ b/Report_Generator_V1/bin/Debug/teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luiz-pc\Documents\HACKATHON\SafraHackathon\Report_Generator_V1\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A5EDC35-1F40-487C-B8B9-96A54058E166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{38578DD6-F518-4FB4-BE03-F506E07C0BB6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="3105" windowWidth="28800" windowHeight="11385" xr2:uid="{654B5F4C-3FD9-489E-A28E-60CE46A514DA}"/>
+    <workbookView xWindow="9225" yWindow="3105" windowWidth="28800" windowHeight="11385" xr2:uid="{31884F6D-3073-4D39-998C-33CC974ED846}"/>
   </bookViews>
   <sheets>
     <sheet name="resumo_consolidado" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>RESUMO CONSOLIDADO DE PREVISÃO DE SAÚDE FINANCEIRA</t>
   </si>
@@ -303,7 +303,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
@@ -323,10 +323,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>listagem_formulas!$H$3:$H$14</c:f>
+              <c:f>listagem_formulas!$H$3:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -336,64 +336,19 @@
                 <c:pt idx="2">
                   <c:v>800000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>800000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>listagem_formulas!$I$3:$I$14</c:f>
+              <c:f>listagem_formulas!$I$3:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>800000</c:v>
                 </c:pt>
               </c:numCache>
@@ -402,7 +357,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-C19F-4094-BDE4-49859AA381E9}"/>
+              <c16:uniqueId val="{00000007-CDAD-4B96-961C-C47616F5DED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -421,7 +376,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
             </a:ln>
             <a:effectLst/>
@@ -441,10 +396,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>listagem_formulas!$H$3:$H$14</c:f>
+              <c:f>listagem_formulas!$H$3:$H$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -454,52 +409,16 @@
                 <c:pt idx="2">
                   <c:v>800000</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>800000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>800000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>listagem_formulas!$J$3:$J$14</c:f>
+              <c:f>listagem_formulas!$J$3:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="2">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="11">
                   <c:v>25000</c:v>
                 </c:pt>
               </c:numCache>
@@ -508,7 +427,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C19F-4094-BDE4-49859AA381E9}"/>
+              <c16:uniqueId val="{00000008-CDAD-4B96-961C-C47616F5DED1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -520,11 +439,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1993391600"/>
-        <c:axId val="1892953424"/>
+        <c:axId val="1549005920"/>
+        <c:axId val="1547725024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1993391600"/>
+        <c:axId val="1549005920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,12 +547,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1892953424"/>
+        <c:crossAx val="1547725024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1892953424"/>
+        <c:axId val="1547725024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -742,7 +661,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1993391600"/>
+        <c:crossAx val="1549005920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -951,7 +870,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-16AA-4F3D-8984-14381AD226D3}"/>
+                <c16:uniqueId val="{00000009-9500-4E95-97F7-12B883359B9C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -975,7 +894,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-16AA-4F3D-8984-14381AD226D3}"/>
+                <c16:uniqueId val="{0000000A-9500-4E95-97F7-12B883359B9C}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1064,7 +983,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-16AA-4F3D-8984-14381AD226D3}"/>
+              <c16:uniqueId val="{00000008-9500-4E95-97F7-12B883359B9C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2307,7 +2226,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D82F47-65D2-4093-8099-4EE1F269AEE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9373D530-036F-47D0-80B2-567A88737B35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2262,7 @@
         <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30CBCFD6-691E-425E-BC67-AC0C149CA4EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCED73AA-D8A2-416C-9B79-77E6A7375983}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +2579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF3CD83-AA83-4CE5-BAA0-E018FCA84041}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692465F4-8280-42A7-9D5E-8421F7DCB089}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2811,8 +2730,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE043339-F1D1-48DD-A339-02DBF15CCA65}">
-  <dimension ref="A1:Q14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DB5320-5DEA-44FE-82E5-8D4138941A5F}">
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2861,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="6">
-        <v>44087.698611111111</v>
+        <v>44087.706944444442</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
@@ -2893,7 +2812,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="6">
-        <v>44087.698611111111</v>
+        <v>44087.706944444442</v>
       </c>
       <c r="H3" s="5">
         <v>0</v>
@@ -2923,7 +2842,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="6">
-        <v>44087.698611111111</v>
+        <v>44087.706944444442</v>
       </c>
       <c r="H4" s="5">
         <v>0</v>
@@ -2940,227 +2859,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>711234511</v>
-      </c>
-      <c r="B5" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6">
-        <v>44087.698611111111</v>
-      </c>
       <c r="H5" s="5">
         <v>800000</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>711234522</v>
-      </c>
-      <c r="B6" s="5">
-        <v>800000</v>
-      </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>25000</v>
-      </c>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>711234533</v>
-      </c>
-      <c r="B7" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>800000</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>800000</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>711234511</v>
-      </c>
-      <c r="B8" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H8" s="5">
-        <v>800000</v>
-      </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>711234522</v>
-      </c>
-      <c r="B9" s="5">
-        <v>800000</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>25000</v>
-      </c>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>711234533</v>
-      </c>
-      <c r="B10" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C10" s="5">
-        <v>800000</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>800000</v>
-      </c>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>711234511</v>
-      </c>
-      <c r="B11" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H11" s="5">
-        <v>800000</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>711234522</v>
-      </c>
-      <c r="B12" s="5">
-        <v>800000</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>25000</v>
-      </c>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>711234533</v>
-      </c>
-      <c r="B13" s="5">
-        <v>25000</v>
-      </c>
-      <c r="C13" s="5">
-        <v>800000</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="6">
-        <v>44087.698611111111</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
-        <v>800000</v>
-      </c>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H14" s="5">
-        <v>800000</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
         <v>25000</v>
       </c>
     </row>
@@ -3174,7 +2877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88328E05-0A50-4E6F-AE95-209757DB97D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD657D4-CBDB-4482-AE35-020E511300DD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
